--- a/df_ciiu.xlsx
+++ b/df_ciiu.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t xml:space="preserve">ciiu4_fct</t>
+  </si>
   <si>
     <t xml:space="preserve">ciiu4_1_fct</t>
   </si>
@@ -20,70 +23,130 @@
     <t xml:space="preserve">empleo</t>
   </si>
   <si>
-    <t xml:space="preserve">porcentaje_empleo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Agricultura, ganadería,  silvicultura y pesca</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Explotación de minas y canteras</t>
   </si>
   <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
     <t xml:space="preserve">Industrias manufactureras</t>
   </si>
   <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
     <t xml:space="preserve">Suministro de electricidad, gas, vapor y aire acondicionado</t>
   </si>
   <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
     <t xml:space="preserve">Distribución de agua; alcantarillado, gestión de desechos y actividades de saneamiento.</t>
   </si>
   <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
     <t xml:space="preserve">Construcción</t>
   </si>
   <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comercio al por mayor y al por menor; reparación de vehículos automotores y motocicletas</t>
   </si>
   <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transporte y almacenamiento</t>
   </si>
   <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
     <t xml:space="preserve">Actividades de alojamiento y de servicio de comidas</t>
   </si>
   <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
     <t xml:space="preserve">Información y comunicación</t>
   </si>
   <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
     <t xml:space="preserve">Actividades financieras y de seguros</t>
   </si>
   <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
     <t xml:space="preserve">Actividades inmobiliarias</t>
   </si>
   <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
     <t xml:space="preserve">Actividades profesionales, científicas y técnicas</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">Actividades de servicios administrativos y de apoyo</t>
   </si>
   <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
     <t xml:space="preserve">Administración pública y defensa; planes de seguridad social de afiliación obligatoria</t>
   </si>
   <si>
+    <t xml:space="preserve">O</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enseñanza</t>
   </si>
   <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
     <t xml:space="preserve">Actividades de atención de la salud humana y de asistencia social</t>
   </si>
   <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
     <t xml:space="preserve">Artes, entretenimiento y recreación</t>
   </si>
   <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
     <t xml:space="preserve">Otras actividades de servicios</t>
   </si>
   <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
     <t xml:space="preserve">Organizaciones internacionales</t>
   </si>
   <si>
+    <t xml:space="preserve">U</t>
+  </si>
+  <si>
     <t xml:space="preserve">Otro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z0_Nocla_CIIU</t>
   </si>
 </sst>
 </file>
@@ -430,231 +493,231 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
         <v>229972</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.05103155023283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
         <v>31288</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.09535367411548</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
         <v>360598</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12.6240841274192</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
         <v>20888</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.731262705987091</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
         <v>23524</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.823545762908863</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
         <v>91045</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.18737136473548</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n">
         <v>535887</v>
-      </c>
-      <c r="C8" t="n">
-        <v>18.7607323689824</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n">
         <v>142347</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.98339010001649</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="n">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
         <v>105332</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.68754133220185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="n">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
         <v>56282</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.97036229501941</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="n">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="n">
         <v>76524</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.67900935048622</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="n">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="n">
         <v>37024</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.29616384653706</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="n">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="n">
         <v>148741</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5.20723602792158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="n">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
         <v>165289</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5.78656077220894</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="n">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="n">
         <v>460848</v>
-      </c>
-      <c r="C16" t="n">
-        <v>16.1337110076953</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="n">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="n">
         <v>128297</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4.49151720557381</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="n">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="n">
         <v>160245</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5.60997665266667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="n">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="n">
         <v>16749</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.58636150242138</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="n">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="n">
         <v>64849</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.27028223001517</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="n">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="n">
         <v>497</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0173993472269046</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="n">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="n">
         <v>203</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.00710677562789063</v>
       </c>
     </row>
   </sheetData>
